--- a/biology/Zoologie/Dasumiana/Dasumiana.xlsx
+++ b/biology/Zoologie/Dasumiana/Dasumiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dasumiana emicans
 Dasumiana est un genre fossile d'araignées aranéomorphes de la famille des Dysderidae.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de la mer Baltique, au Danemark et en Russie[3]. Elles datent du Paléogène[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de la mer Baltique, au Danemark et en Russie. Elles datent du Paléogène.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The World Spider Catalog 15.0[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The World Spider Catalog 15.0 :
 Dasumiana emicans Wunderlich, 2004, espèce type
 Dasumiana subita Petrunkevitch, 1958.
 Dasumiana valga Wunderlich, 2004.</t>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Jörg Wunderlich, Fossil spiders (Araneae) of the superfamily Dysderoidea in Baltic and Dominican amber, with revised family diagnoses., vol. 3, coll. « Beiträge zur Araneologie », 2004, 633–746 p..</t>
         </is>
